--- a/hiqu/HR/Performance Evaluation/November 2024/QA/Ayesha Qurban.xlsx
+++ b/hiqu/HR/Performance Evaluation/November 2024/QA/Ayesha Qurban.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE981D87-C73B-41A7-B80A-7242481B37A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5256C498-CF5B-4577-A843-8FA55518868F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -2894,7 +2894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C10" s="40">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>2.7616438356164386</v>
+        <v>2.7863013698630139</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -3286,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DC5E4E-FD08-4DBC-ACD4-5233127E6602}">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3360,7 +3360,9 @@
       <c r="C7" s="23">
         <v>0.8</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
     </row>
@@ -3371,7 +3373,9 @@
       <c r="C8" s="23">
         <v>0.8</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
     </row>
@@ -3382,7 +3386,9 @@
       <c r="C9" s="23">
         <v>0.8</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
     </row>
@@ -3393,7 +3399,9 @@
       <c r="C10" s="23">
         <v>0.8</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
     </row>
@@ -3404,7 +3412,9 @@
       <c r="C11" s="23">
         <v>0.8</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
     </row>
@@ -3415,7 +3425,9 @@
       <c r="C12" s="23">
         <v>0.8</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
     </row>
@@ -3426,7 +3438,9 @@
       <c r="C13" s="23">
         <v>0.8</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
     </row>
@@ -3437,7 +3451,9 @@
       <c r="C14" s="23">
         <v>0.8</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
     </row>
@@ -3457,7 +3473,9 @@
       <c r="C16" s="23">
         <v>0.8</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
     </row>
@@ -3468,7 +3486,9 @@
       <c r="C17" s="23">
         <v>0.6</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="23">
+        <v>0.6</v>
+      </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
     </row>
@@ -3479,7 +3499,9 @@
       <c r="C18" s="23">
         <v>0.7</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="23">
+        <v>0.7</v>
+      </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
     </row>
@@ -3490,7 +3512,9 @@
       <c r="C19" s="23">
         <v>0.8</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
     </row>
@@ -3501,7 +3525,9 @@
       <c r="C20" s="23">
         <v>0.8</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
     </row>
@@ -3512,7 +3538,9 @@
       <c r="C21" s="23">
         <v>0.8</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
     </row>
@@ -3523,7 +3551,9 @@
       <c r="C22" s="23">
         <v>0.7</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="23">
+        <v>0.7</v>
+      </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
     </row>
@@ -3543,7 +3573,9 @@
       <c r="C24" s="23">
         <v>0.7</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="23">
+        <v>0.7</v>
+      </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
     </row>
@@ -3554,7 +3586,9 @@
       <c r="C25" s="23">
         <v>0.7</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="23">
+        <v>0.7</v>
+      </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
     </row>
@@ -3565,7 +3599,9 @@
       <c r="C26" s="23">
         <v>0.7</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="23">
+        <v>0.7</v>
+      </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
     </row>
@@ -3576,7 +3612,9 @@
       <c r="C27" s="23">
         <v>0.7</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="23">
+        <v>0.7</v>
+      </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
     </row>
@@ -3587,7 +3625,9 @@
       <c r="C28" s="23">
         <v>0.7</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="23">
+        <v>0.7</v>
+      </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
     </row>
@@ -3598,7 +3638,9 @@
       <c r="C29" s="23">
         <v>0.8</v>
       </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
     </row>
@@ -3609,7 +3651,9 @@
       <c r="C30" s="23">
         <v>0.8</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
     </row>
@@ -3620,7 +3664,9 @@
       <c r="C31" s="23">
         <v>0.8</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
     </row>
@@ -3633,7 +3679,7 @@
     <mergeCell ref="B6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C14">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3647,7 +3693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C22">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3661,7 +3707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C31">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3674,50 +3720,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D14">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DBA87961-331F-4262-B96F-5DDBF3210EB3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D22">
+  <conditionalFormatting sqref="E7:E14">
     <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F17256EC-FC29-4657-8FE4-3C0D945400DA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D31">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3D108085-0AC4-4EA0-8AE1-42E4B448586B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E14">
-    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3731,7 +3735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E22">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3745,7 +3749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E31">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3759,7 +3763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F14">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3773,7 +3777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F22">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3787,6 +3791,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F31">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9A9019BC-53BC-4CBF-8FDF-25B15EC46881}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{50687082-FB6B-4718-8A7B-76762D2C25DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D22">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AC46A4D8-3820-4117-8FED-1B2D200D0699}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D31">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3795,7 +3841,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A9019BC-53BC-4CBF-8FDF-25B15EC46881}</x14:id>
+          <x14:id>{9F20362E-76B2-4401-824A-D69DA6E2B256}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3848,51 +3894,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C24:C31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DBA87961-331F-4262-B96F-5DDBF3210EB3}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D7:D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F17256EC-FC29-4657-8FE4-3C0D945400DA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D16:D22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3D108085-0AC4-4EA0-8AE1-42E4B448586B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="5" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D24:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1DDDC86A-244C-4AB5-B139-7657251EC385}">
@@ -3984,6 +3985,51 @@
           </x14:cfRule>
           <xm:sqref>F24:F31</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{50687082-FB6B-4718-8A7B-76762D2C25DE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AC46A4D8-3820-4117-8FED-1B2D200D0699}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:D22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9F20362E-76B2-4401-824A-D69DA6E2B256}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D24:D31</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -3995,7 +4041,7 @@
   <dimension ref="B2:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4454,7 +4500,9 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2">
+        <v>20</v>
+      </c>
       <c r="N18" s="2">
         <f>20+35</f>
         <v>55</v>
@@ -4513,7 +4561,9 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2">
+        <v>8</v>
+      </c>
       <c r="N20" s="2">
         <v>25</v>
       </c>
@@ -4770,7 +4820,9 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="M29" s="2">
+        <v>8</v>
+      </c>
       <c r="N29" s="2">
         <v>4</v>
       </c>
@@ -5111,7 +5163,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="13">
         <f>SUM(M8:M40)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N41" s="13">
         <f>SUM(N8:N40)</f>
